--- a/database/industries/siman/silam/product/yearly.xlsx
+++ b/database/industries/siman/silam/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ABB3AD-836D-4700-86E8-197954A85438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153A6639-DB07-4060-A886-BE8B2670444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="37">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/10</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/10</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/10</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/10</t>
+  </si>
+  <si>
     <t>کلینکر</t>
   </si>
   <si>
@@ -121,10 +121,10 @@
     <t>تن / ریال</t>
   </si>
   <si>
+    <t>/ ریال</t>
+  </si>
+  <si>
     <t>میلیون ریال / ریال</t>
-  </si>
-  <si>
-    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -590,12 +590,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -605,7 +605,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,7 +617,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -629,7 +629,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -639,7 +639,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -651,7 +651,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -663,7 +663,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -673,7 +673,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -695,7 +695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -705,7 +705,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -713,8 +713,8 @@
         <v>11</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9">
-        <v>983321</v>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>12</v>
@@ -722,14 +722,14 @@
       <c r="G10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>12</v>
+      <c r="H10" s="9">
+        <v>1003967</v>
       </c>
       <c r="I10" s="9">
-        <v>1003967</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1115420</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -746,14 +746,14 @@
       <c r="G11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>12</v>
+      <c r="H11" s="11">
+        <v>573808</v>
       </c>
       <c r="I11" s="11">
-        <v>573808</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -762,22 +762,22 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>832018</v>
+        <v>714482</v>
       </c>
       <c r="F12" s="9">
-        <v>714482</v>
+        <v>1447440</v>
       </c>
       <c r="G12" s="9">
-        <v>1447440</v>
-      </c>
-      <c r="H12" s="9">
         <v>806149</v>
       </c>
+      <c r="H12" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I12" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -792,14 +792,14 @@
       <c r="G13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>12</v>
+      <c r="H13" s="11">
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>16</v>
       </c>
@@ -823,7 +823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -847,7 +847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>18</v>
       </c>
@@ -864,14 +864,14 @@
       <c r="G16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="9" t="s">
-        <v>12</v>
+      <c r="H16" s="9">
+        <v>0</v>
       </c>
       <c r="I16" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>20</v>
       </c>
@@ -888,36 +888,36 @@
       <c r="G17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>12</v>
+      <c r="H17" s="11">
+        <v>118649</v>
       </c>
       <c r="I17" s="11">
-        <v>118649</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>541854</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13">
-        <v>1815339</v>
+        <v>714482</v>
       </c>
       <c r="F18" s="13">
-        <v>714482</v>
+        <v>1447440</v>
       </c>
       <c r="G18" s="13">
-        <v>1447440</v>
+        <v>806149</v>
       </c>
       <c r="H18" s="13">
-        <v>806149</v>
+        <v>1696424</v>
       </c>
       <c r="I18" s="13">
-        <v>1696424</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1657321</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -927,7 +927,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -937,7 +937,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -947,7 +947,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
@@ -969,7 +969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -979,7 +979,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>10</v>
       </c>
@@ -987,23 +987,23 @@
         <v>11</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>12</v>
+      <c r="E24" s="9">
+        <v>139751</v>
       </c>
       <c r="F24" s="9">
-        <v>139751</v>
+        <v>138949</v>
       </c>
       <c r="G24" s="9">
-        <v>138949</v>
+        <v>98634</v>
       </c>
       <c r="H24" s="9">
-        <v>98634</v>
+        <v>248712</v>
       </c>
       <c r="I24" s="9">
-        <v>248712</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>506162</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>13</v>
       </c>
@@ -1020,14 +1020,14 @@
       <c r="G25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>12</v>
+      <c r="H25" s="11">
+        <v>569244</v>
       </c>
       <c r="I25" s="11">
-        <v>569244</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>13</v>
       </c>
@@ -1035,23 +1035,23 @@
         <v>19</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>12</v>
+      <c r="E26" s="9">
+        <v>151053</v>
       </c>
       <c r="F26" s="9">
-        <v>151053</v>
+        <v>124476</v>
       </c>
       <c r="G26" s="9">
-        <v>124476</v>
-      </c>
-      <c r="H26" s="9">
         <v>31636</v>
       </c>
+      <c r="H26" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I26" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
@@ -1059,8 +1059,8 @@
         <v>11</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="11">
-        <v>183474</v>
+      <c r="E27" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>12</v>
@@ -1075,7 +1075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>24</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>25</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>26</v>
       </c>
@@ -1131,8 +1131,8 @@
         <v>11</v>
       </c>
       <c r="D30" s="9"/>
-      <c r="E30" s="9">
-        <v>199694</v>
+      <c r="E30" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>12</v>
@@ -1147,14 +1147,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
-        <v>12</v>
+      <c r="E31" s="11">
+        <v>0</v>
       </c>
       <c r="F31" s="11">
         <v>0</v>
@@ -1162,21 +1162,21 @@
       <c r="G31" s="11">
         <v>0</v>
       </c>
-      <c r="H31" s="11">
-        <v>0</v>
+      <c r="H31" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
-        <v>12</v>
+      <c r="E32" s="9">
+        <v>0</v>
       </c>
       <c r="F32" s="9">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>28</v>
       </c>
@@ -1200,22 +1200,22 @@
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11">
-        <v>442426</v>
+        <v>416828</v>
       </c>
       <c r="F33" s="11">
-        <v>416828</v>
+        <v>453620</v>
       </c>
       <c r="G33" s="11">
-        <v>453620</v>
-      </c>
-      <c r="H33" s="11">
         <v>461276</v>
       </c>
+      <c r="H33" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I33" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>29</v>
       </c>
@@ -1224,22 +1224,22 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9">
-        <v>186662</v>
+        <v>141816</v>
       </c>
       <c r="F34" s="9">
-        <v>141816</v>
+        <v>153642</v>
       </c>
       <c r="G34" s="9">
-        <v>153642</v>
-      </c>
-      <c r="H34" s="9">
         <v>207978</v>
       </c>
+      <c r="H34" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I34" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>18</v>
       </c>
@@ -1253,8 +1253,8 @@
       <c r="F35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="11" t="s">
-        <v>12</v>
+      <c r="G35" s="11">
+        <v>0</v>
       </c>
       <c r="H35" s="11">
         <v>0</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>20</v>
       </c>
@@ -1280,36 +1280,36 @@
       <c r="G36" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>12</v>
+      <c r="H36" s="9">
+        <v>128020</v>
       </c>
       <c r="I36" s="9">
-        <v>128020</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>544334</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>1012256</v>
+        <v>849448</v>
       </c>
       <c r="F37" s="15">
-        <v>849448</v>
+        <v>870687</v>
       </c>
       <c r="G37" s="15">
-        <v>870687</v>
+        <v>799524</v>
       </c>
       <c r="H37" s="15">
-        <v>799524</v>
+        <v>945977</v>
       </c>
       <c r="I37" s="15">
-        <v>945977</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1050543</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1319,7 +1319,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1329,7 +1329,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1339,7 +1339,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>30</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1371,7 +1371,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>10</v>
       </c>
@@ -1379,23 +1379,23 @@
         <v>19</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
-        <v>12</v>
+      <c r="E43" s="9">
+        <v>160247</v>
       </c>
       <c r="F43" s="9">
-        <v>160247</v>
+        <v>231703</v>
       </c>
       <c r="G43" s="9">
-        <v>231703</v>
+        <v>205477</v>
       </c>
       <c r="H43" s="9">
-        <v>205477</v>
+        <v>937896</v>
       </c>
       <c r="I43" s="9">
-        <v>937896</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3373455</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>13</v>
       </c>
@@ -1403,23 +1403,23 @@
         <v>19</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>12</v>
+      <c r="E44" s="11">
+        <v>213681</v>
       </c>
       <c r="F44" s="11">
-        <v>213681</v>
+        <v>284854</v>
       </c>
       <c r="G44" s="11">
-        <v>284854</v>
+        <v>86025</v>
       </c>
       <c r="H44" s="11">
-        <v>86025</v>
+        <v>2054816</v>
       </c>
       <c r="I44" s="11">
-        <v>2054816</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>23</v>
       </c>
@@ -1427,8 +1427,8 @@
         <v>19</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9">
-        <v>115858</v>
+      <c r="E45" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>12</v>
@@ -1443,7 +1443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>24</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>25</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>26</v>
       </c>
@@ -1499,8 +1499,8 @@
         <v>19</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11">
-        <v>143425</v>
+      <c r="E48" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>12</v>
@@ -1515,7 +1515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>27</v>
       </c>
@@ -1523,8 +1523,8 @@
         <v>19</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>12</v>
+      <c r="E49" s="9">
+        <v>0</v>
       </c>
       <c r="F49" s="9">
         <v>0</v>
@@ -1532,14 +1532,14 @@
       <c r="G49" s="9">
         <v>0</v>
       </c>
-      <c r="H49" s="9">
-        <v>0</v>
+      <c r="H49" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>15</v>
       </c>
@@ -1547,23 +1547,23 @@
         <v>19</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>12</v>
+      <c r="E50" s="11">
+        <v>0</v>
       </c>
       <c r="F50" s="11">
-        <v>0</v>
+        <v>-76726</v>
       </c>
       <c r="G50" s="11">
-        <v>-76726</v>
+        <v>-165601</v>
       </c>
       <c r="H50" s="11">
-        <v>-165601</v>
+        <v>-28552</v>
       </c>
       <c r="I50" s="11">
-        <v>-28552</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>28</v>
       </c>
@@ -1572,22 +1572,22 @@
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
-        <v>421466</v>
+        <v>516885</v>
       </c>
       <c r="F51" s="9">
-        <v>516885</v>
+        <v>822112</v>
       </c>
       <c r="G51" s="9">
-        <v>822112</v>
-      </c>
-      <c r="H51" s="9">
         <v>1077939</v>
       </c>
+      <c r="H51" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I51" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>29</v>
       </c>
@@ -1596,22 +1596,22 @@
       </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>167651</v>
+        <v>142157</v>
       </c>
       <c r="F52" s="11">
-        <v>142157</v>
+        <v>232477</v>
       </c>
       <c r="G52" s="11">
-        <v>232477</v>
-      </c>
-      <c r="H52" s="11">
         <v>545059</v>
       </c>
+      <c r="H52" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I52" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>18</v>
       </c>
@@ -1625,17 +1625,17 @@
       <c r="F53" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>12</v>
+      <c r="G53" s="9">
+        <v>33250</v>
       </c>
       <c r="H53" s="9">
-        <v>33250</v>
+        <v>19000</v>
       </c>
       <c r="I53" s="9">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>20</v>
       </c>
@@ -1652,36 +1652,36 @@
       <c r="G54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="11" t="s">
-        <v>12</v>
+      <c r="H54" s="11">
+        <v>556259</v>
       </c>
       <c r="I54" s="11">
-        <v>556259</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2898190</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13">
-        <v>848400</v>
+        <v>1032970</v>
       </c>
       <c r="F55" s="13">
-        <v>1032970</v>
+        <v>1494420</v>
       </c>
       <c r="G55" s="13">
-        <v>1494420</v>
+        <v>1782149</v>
       </c>
       <c r="H55" s="13">
-        <v>1782149</v>
+        <v>3539419</v>
       </c>
       <c r="I55" s="13">
-        <v>3539419</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6300588</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1691,7 +1691,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1701,7 +1701,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1711,7 +1711,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>31</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1743,7 +1743,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>10</v>
       </c>
@@ -1751,47 +1751,47 @@
         <v>32</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>12</v>
+      <c r="E61" s="9">
+        <v>1146661</v>
       </c>
       <c r="F61" s="9">
-        <v>1146661</v>
+        <v>1667540</v>
       </c>
       <c r="G61" s="9">
-        <v>1667540</v>
+        <v>2083227</v>
       </c>
       <c r="H61" s="9">
-        <v>2083227</v>
+        <v>3771005</v>
       </c>
       <c r="I61" s="9">
-        <v>3771005</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6664773</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>12</v>
+      <c r="E62" s="11">
+        <v>1414609</v>
       </c>
       <c r="F62" s="11">
-        <v>1414609</v>
+        <v>2288425</v>
       </c>
       <c r="G62" s="11">
-        <v>2288425</v>
+        <v>2719212</v>
       </c>
       <c r="H62" s="11">
-        <v>2719212</v>
+        <v>3609726</v>
       </c>
       <c r="I62" s="11">
-        <v>3609726</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9425532</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>23</v>
       </c>
@@ -1799,8 +1799,8 @@
         <v>32</v>
       </c>
       <c r="D63" s="9"/>
-      <c r="E63" s="9">
-        <v>631468</v>
+      <c r="E63" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>12</v>
@@ -1815,7 +1815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>24</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>25</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>26</v>
       </c>
@@ -1871,8 +1871,8 @@
         <v>32</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11">
-        <v>718224</v>
+      <c r="E66" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>12</v>
@@ -1887,16 +1887,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
-        <v>12</v>
+      <c r="E67" s="9">
+        <v>0</v>
       </c>
       <c r="F67" s="9">
         <v>0</v>
@@ -1904,23 +1904,23 @@
       <c r="G67" s="9">
         <v>0</v>
       </c>
-      <c r="H67" s="9">
-        <v>0</v>
+      <c r="H67" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D68" s="11"/>
-      <c r="E68" s="11" t="s">
-        <v>12</v>
+      <c r="E68" s="11">
+        <v>0</v>
       </c>
       <c r="F68" s="11">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>28</v>
       </c>
@@ -1944,22 +1944,22 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>952625</v>
+        <v>1240044</v>
       </c>
       <c r="F69" s="9">
-        <v>1240044</v>
+        <v>1812336</v>
       </c>
       <c r="G69" s="9">
-        <v>1812336</v>
-      </c>
-      <c r="H69" s="9">
         <v>2336863</v>
       </c>
+      <c r="H69" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I69" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>29</v>
       </c>
@@ -1968,27 +1968,27 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>898153</v>
+        <v>1002405</v>
       </c>
       <c r="F70" s="11">
-        <v>1002405</v>
+        <v>1513108</v>
       </c>
       <c r="G70" s="11">
-        <v>1513108</v>
-      </c>
-      <c r="H70" s="11">
         <v>2620753</v>
       </c>
+      <c r="H70" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I70" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9" t="s">
@@ -1997,8 +1997,8 @@
       <c r="F71" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G71" s="9" t="s">
-        <v>12</v>
+      <c r="G71" s="9">
+        <v>0</v>
       </c>
       <c r="H71" s="9">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>20</v>
       </c>
@@ -2024,14 +2024,14 @@
       <c r="G72" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H72" s="11" t="s">
-        <v>12</v>
+      <c r="H72" s="11">
+        <v>4345102</v>
       </c>
       <c r="I72" s="11">
-        <v>4345102</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5324286</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2041,7 +2041,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2051,7 +2051,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2061,7 +2061,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>35</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2093,7 +2093,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>10</v>
       </c>
@@ -2101,23 +2101,23 @@
         <v>19</v>
       </c>
       <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
-        <v>12</v>
+      <c r="E78" s="9">
+        <v>-81570</v>
       </c>
       <c r="F78" s="9">
-        <v>-81570</v>
+        <v>-113047</v>
       </c>
       <c r="G78" s="9">
-        <v>-113047</v>
+        <v>-112512</v>
       </c>
       <c r="H78" s="9">
-        <v>-112512</v>
+        <v>-403139</v>
       </c>
       <c r="I78" s="9">
-        <v>-403139</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1500609</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>13</v>
       </c>
@@ -2125,23 +2125,23 @@
         <v>19</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11" t="s">
-        <v>12</v>
+      <c r="E79" s="11">
+        <v>-180845</v>
       </c>
       <c r="F79" s="11">
-        <v>-180845</v>
+        <v>-177315</v>
       </c>
       <c r="G79" s="11">
-        <v>-177315</v>
+        <v>-83447</v>
       </c>
       <c r="H79" s="11">
-        <v>-83447</v>
+        <v>-1684802</v>
       </c>
       <c r="I79" s="11">
-        <v>-1684802</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-420</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>27</v>
       </c>
@@ -2149,8 +2149,8 @@
         <v>19</v>
       </c>
       <c r="D80" s="9"/>
-      <c r="E80" s="9" t="s">
-        <v>12</v>
+      <c r="E80" s="9">
+        <v>0</v>
       </c>
       <c r="F80" s="9">
         <v>0</v>
@@ -2158,14 +2158,14 @@
       <c r="G80" s="9">
         <v>0</v>
       </c>
-      <c r="H80" s="9">
-        <v>0</v>
+      <c r="H80" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I80" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>15</v>
       </c>
@@ -2173,23 +2173,23 @@
         <v>19</v>
       </c>
       <c r="D81" s="11"/>
-      <c r="E81" s="11" t="s">
-        <v>12</v>
+      <c r="E81" s="11">
+        <v>0</v>
       </c>
       <c r="F81" s="11">
         <v>0</v>
       </c>
       <c r="G81" s="11">
-        <v>0</v>
+        <v>165601</v>
       </c>
       <c r="H81" s="11">
-        <v>165601</v>
+        <v>0</v>
       </c>
       <c r="I81" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>28</v>
       </c>
@@ -2197,23 +2197,23 @@
         <v>19</v>
       </c>
       <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
-        <v>12</v>
+      <c r="E82" s="9">
+        <v>-429014</v>
       </c>
       <c r="F82" s="9">
-        <v>-429014</v>
+        <v>-699700</v>
       </c>
       <c r="G82" s="9">
-        <v>-699700</v>
-      </c>
-      <c r="H82" s="9">
         <v>-1050430</v>
       </c>
+      <c r="H82" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I82" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>29</v>
       </c>
@@ -2221,23 +2221,23 @@
         <v>19</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
-        <v>12</v>
+      <c r="E83" s="11">
+        <v>-104037</v>
       </c>
       <c r="F83" s="11">
-        <v>-104037</v>
+        <v>-189260</v>
       </c>
       <c r="G83" s="11">
-        <v>-189260</v>
-      </c>
-      <c r="H83" s="11">
         <v>-310683</v>
       </c>
+      <c r="H83" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I83" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>18</v>
       </c>
@@ -2251,8 +2251,8 @@
       <c r="F84" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G84" s="9" t="s">
-        <v>12</v>
+      <c r="G84" s="9">
+        <v>0</v>
       </c>
       <c r="H84" s="9">
         <v>0</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>20</v>
       </c>
@@ -2278,36 +2278,36 @@
       <c r="G85" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="11" t="s">
-        <v>12</v>
+      <c r="H85" s="11">
+        <v>-328923</v>
       </c>
       <c r="I85" s="11">
-        <v>-328923</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2539426</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>0</v>
+        <v>-795466</v>
       </c>
       <c r="F86" s="13">
-        <v>-795466</v>
+        <v>-1179322</v>
       </c>
       <c r="G86" s="13">
-        <v>-1179322</v>
+        <v>-1391471</v>
       </c>
       <c r="H86" s="13">
-        <v>-1391471</v>
+        <v>-2416864</v>
       </c>
       <c r="I86" s="13">
-        <v>-2416864</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4040455</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2317,7 +2317,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2327,7 +2327,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2337,7 +2337,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
         <v>36</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2369,7 +2369,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>10</v>
       </c>
@@ -2377,23 +2377,23 @@
         <v>19</v>
       </c>
       <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
-        <v>12</v>
+      <c r="E92" s="9">
+        <v>78677</v>
       </c>
       <c r="F92" s="9">
-        <v>78677</v>
+        <v>118656</v>
       </c>
       <c r="G92" s="9">
-        <v>118656</v>
+        <v>92965</v>
       </c>
       <c r="H92" s="9">
-        <v>92965</v>
+        <v>534757</v>
       </c>
       <c r="I92" s="9">
-        <v>534757</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1872846</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>13</v>
       </c>
@@ -2401,23 +2401,23 @@
         <v>19</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
-        <v>12</v>
+      <c r="E93" s="11">
+        <v>32836</v>
       </c>
       <c r="F93" s="11">
-        <v>32836</v>
+        <v>107539</v>
       </c>
       <c r="G93" s="11">
-        <v>107539</v>
+        <v>2578</v>
       </c>
       <c r="H93" s="11">
-        <v>2578</v>
+        <v>370014</v>
       </c>
       <c r="I93" s="11">
-        <v>370014</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="8" t="s">
         <v>27</v>
       </c>
@@ -2425,8 +2425,8 @@
         <v>19</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
-        <v>12</v>
+      <c r="E94" s="9">
+        <v>0</v>
       </c>
       <c r="F94" s="9">
         <v>0</v>
@@ -2434,14 +2434,14 @@
       <c r="G94" s="9">
         <v>0</v>
       </c>
-      <c r="H94" s="9">
-        <v>0</v>
+      <c r="H94" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="I94" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>15</v>
       </c>
@@ -2449,14 +2449,14 @@
         <v>19</v>
       </c>
       <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
-        <v>12</v>
+      <c r="E95" s="11">
+        <v>0</v>
       </c>
       <c r="F95" s="11">
-        <v>0</v>
+        <v>-76726</v>
       </c>
       <c r="G95" s="11">
-        <v>-76726</v>
+        <v>0</v>
       </c>
       <c r="H95" s="11">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>28</v>
       </c>
@@ -2473,23 +2473,23 @@
         <v>19</v>
       </c>
       <c r="D96" s="9"/>
-      <c r="E96" s="9" t="s">
-        <v>12</v>
+      <c r="E96" s="9">
+        <v>87871</v>
       </c>
       <c r="F96" s="9">
-        <v>87871</v>
+        <v>122412</v>
       </c>
       <c r="G96" s="9">
-        <v>122412</v>
-      </c>
-      <c r="H96" s="9">
         <v>27509</v>
       </c>
+      <c r="H96" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="I96" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>29</v>
       </c>
@@ -2497,23 +2497,23 @@
         <v>19</v>
       </c>
       <c r="D97" s="11"/>
-      <c r="E97" s="11" t="s">
-        <v>12</v>
+      <c r="E97" s="11">
+        <v>38120</v>
       </c>
       <c r="F97" s="11">
-        <v>38120</v>
+        <v>43217</v>
       </c>
       <c r="G97" s="11">
-        <v>43217</v>
-      </c>
-      <c r="H97" s="11">
         <v>234376</v>
       </c>
+      <c r="H97" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I97" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="8" t="s">
         <v>18</v>
       </c>
@@ -2527,17 +2527,17 @@
       <c r="F98" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G98" s="9" t="s">
-        <v>12</v>
+      <c r="G98" s="9">
+        <v>33250</v>
       </c>
       <c r="H98" s="9">
-        <v>33250</v>
+        <v>19000</v>
       </c>
       <c r="I98" s="9">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>20</v>
       </c>
@@ -2554,33 +2554,33 @@
       <c r="G99" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H99" s="11" t="s">
-        <v>12</v>
+      <c r="H99" s="11">
+        <v>227336</v>
       </c>
       <c r="I99" s="11">
-        <v>227336</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>358764</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>0</v>
+        <v>237504</v>
       </c>
       <c r="F100" s="13">
-        <v>237504</v>
+        <v>315098</v>
       </c>
       <c r="G100" s="13">
-        <v>315098</v>
+        <v>390678</v>
       </c>
       <c r="H100" s="13">
-        <v>390678</v>
+        <v>1151107</v>
       </c>
       <c r="I100" s="13">
-        <v>1151107</v>
+        <v>2260133</v>
       </c>
     </row>
   </sheetData>
